--- a/data/0. old data/0. raw/2016/companies/teva.xlsx
+++ b/data/0. old data/0. raw/2016/companies/teva.xlsx
@@ -4148,16 +4148,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>IcHUV Lausanne</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Luzerner Kantonsspital, Spitalstrasse 4,6000 Luzern</t>
     </r>
   </si>
@@ -4549,6 +4539,16 @@
         <family val="2"/>
       </rPr>
       <t>Rue du Bugnon 46, CH-1011 Lausanne</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CHUV Lausanne</t>
     </r>
   </si>
 </sst>
@@ -5490,7 +5490,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -12226,7 +12226,7 @@
     </row>
     <row r="223" spans="1:13" ht="15" customHeight="1">
       <c r="A223" s="7" t="s">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>475</v>
@@ -12266,7 +12266,7 @@
         <v>130</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E224" s="9"/>
       <c r="F224" s="11"/>
@@ -12297,7 +12297,7 @@
         <v>130</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E225" s="9"/>
       <c r="F225" s="11"/>
@@ -12326,7 +12326,7 @@
         <v>130</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E226" s="9"/>
       <c r="F226" s="11"/>
@@ -12355,7 +12355,7 @@
         <v>130</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E227" s="9"/>
       <c r="F227" s="11"/>
@@ -12384,7 +12384,7 @@
         <v>130</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E228" s="9"/>
       <c r="F228" s="11"/>
@@ -12471,7 +12471,7 @@
         <v>130</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E231" s="9"/>
       <c r="F231" s="11"/>
@@ -12529,7 +12529,7 @@
         <v>130</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E233" s="9"/>
       <c r="F233" s="11"/>
@@ -12558,7 +12558,7 @@
         <v>130</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E234" s="9"/>
       <c r="F234" s="11"/>
@@ -12587,7 +12587,7 @@
         <v>130</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E235" s="9"/>
       <c r="F235" s="11"/>
@@ -12616,7 +12616,7 @@
         <v>130</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E236" s="9"/>
       <c r="F236" s="11"/>
@@ -12639,13 +12639,13 @@
         <v>34</v>
       </c>
       <c r="B237" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D237" s="12" t="s">
         <v>510</v>
-      </c>
-      <c r="C237" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D237" s="12" t="s">
-        <v>511</v>
       </c>
       <c r="E237" s="9"/>
       <c r="F237" s="11"/>
@@ -12674,7 +12674,7 @@
         <v>130</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E238" s="9"/>
       <c r="F238" s="11"/>
@@ -12703,7 +12703,7 @@
         <v>130</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E239" s="9"/>
       <c r="F239" s="11"/>
@@ -12732,7 +12732,7 @@
         <v>130</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E240" s="9"/>
       <c r="F240" s="11"/>
@@ -12761,7 +12761,7 @@
         <v>130</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E241" s="9"/>
       <c r="F241" s="11"/>
@@ -12790,7 +12790,7 @@
         <v>130</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E242" s="9"/>
       <c r="F242" s="11"/>
@@ -12821,7 +12821,7 @@
         <v>130</v>
       </c>
       <c r="D243" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E243" s="9"/>
       <c r="F243" s="11"/>
@@ -12846,13 +12846,13 @@
         <v>63</v>
       </c>
       <c r="B244" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D244" s="12" t="s">
         <v>518</v>
-      </c>
-      <c r="C244" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D244" s="12" t="s">
-        <v>519</v>
       </c>
       <c r="E244" s="9"/>
       <c r="F244" s="11"/>
@@ -12881,7 +12881,7 @@
         <v>130</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E245" s="9"/>
       <c r="F245" s="11"/>
@@ -12910,7 +12910,7 @@
         <v>130</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E246" s="9"/>
       <c r="F246" s="11"/>
@@ -12939,7 +12939,7 @@
         <v>130</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E247" s="9"/>
       <c r="F247" s="11"/>
@@ -12968,7 +12968,7 @@
         <v>130</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E248" s="9"/>
       <c r="F248" s="11"/>
@@ -12997,7 +12997,7 @@
         <v>130</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E249" s="9"/>
       <c r="F249" s="11"/>
@@ -13026,7 +13026,7 @@
         <v>130</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E250" s="9"/>
       <c r="F250" s="11"/>
@@ -13055,7 +13055,7 @@
         <v>130</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E251" s="9"/>
       <c r="F251" s="11"/>
@@ -13084,7 +13084,7 @@
         <v>130</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E252" s="9"/>
       <c r="F252" s="11"/>
@@ -13113,7 +13113,7 @@
         <v>130</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E253" s="9"/>
       <c r="F253" s="11"/>
@@ -13142,7 +13142,7 @@
         <v>130</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E254" s="9"/>
       <c r="F254" s="11"/>
@@ -13171,7 +13171,7 @@
         <v>130</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E255" s="9"/>
       <c r="F255" s="11"/>
@@ -13200,7 +13200,7 @@
         <v>130</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E256" s="9"/>
       <c r="F256" s="11"/>
@@ -13229,7 +13229,7 @@
         <v>130</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E257" s="9"/>
       <c r="F257" s="11"/>
@@ -13249,7 +13249,7 @@
     </row>
     <row r="258" spans="1:13" ht="15" customHeight="1">
       <c r="A258" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B258" s="7" t="s">
         <v>129</v>
@@ -13258,7 +13258,7 @@
         <v>130</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E258" s="9"/>
       <c r="F258" s="11"/>
@@ -13281,13 +13281,13 @@
         <v>56</v>
       </c>
       <c r="B259" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D259" s="12" t="s">
         <v>533</v>
-      </c>
-      <c r="C259" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D259" s="12" t="s">
-        <v>534</v>
       </c>
       <c r="E259" s="9"/>
       <c r="F259" s="11"/>
@@ -13316,7 +13316,7 @@
         <v>130</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E260" s="9"/>
       <c r="F260" s="11"/>
@@ -13345,7 +13345,7 @@
         <v>130</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E261" s="9"/>
       <c r="F261" s="11"/>
@@ -13374,7 +13374,7 @@
         <v>130</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E262" s="9"/>
       <c r="F262" s="11"/>
@@ -13403,7 +13403,7 @@
         <v>130</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E263" s="9"/>
       <c r="F263" s="11"/>
@@ -13432,7 +13432,7 @@
         <v>130</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E264" s="9"/>
       <c r="F264" s="11"/>
@@ -13461,7 +13461,7 @@
         <v>130</v>
       </c>
       <c r="D265" s="16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E265" s="9"/>
       <c r="F265" s="18"/>

--- a/data/0. old data/0. raw/2016/companies/teva.xlsx
+++ b/data/0. old data/0. raw/2016/companies/teva.xlsx
@@ -82,9 +82,6 @@
     <t>Rorschacherstrasse 95</t>
   </si>
   <si>
-    <t>Department of Psychology and Interdisciplinary Platform Psychiatry and Psychology</t>
-  </si>
-  <si>
     <t>hcp</t>
   </si>
   <si>
@@ -992,16 +989,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Istituto Oncologico della Svizzera Italiana</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Decker, Michael</t>
     </r>
   </si>
@@ -1072,16 +1059,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Neurologie</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Egger, Claudine Isabelle</t>
     </r>
   </si>
@@ -4549,6 +4526,29 @@
         <family val="2"/>
       </rPr>
       <t>CHUV Lausanne</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Petersgraben 4, Neurologie</t>
+    </r>
+  </si>
+  <si>
+    <t>University of Basel Birmannsgasse 8 Department of Psychology and Interdisciplinary Platform Psychiatry and Psychology</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Istituto Oncologico della Svizzera Italiana, Via Ospedale</t>
     </r>
   </si>
 </sst>
@@ -5488,9 +5488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A224" sqref="A224"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -5553,13 +5553,13 @@
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>19</v>
@@ -5579,21 +5579,21 @@
         <v>955</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
@@ -5610,21 +5610,21 @@
         <v>834</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
@@ -5641,21 +5641,21 @@
         <v>656</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
@@ -5672,21 +5672,21 @@
         <v>830</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="A6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
@@ -5703,21 +5703,21 @@
         <v>903</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="A7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
@@ -5734,21 +5734,21 @@
         <v>923</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
@@ -5765,21 +5765,21 @@
         <v>926</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
       <c r="A9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
@@ -5796,21 +5796,21 @@
         <v>2426</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1">
       <c r="A10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
@@ -5827,21 +5827,21 @@
         <v>902</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1">
       <c r="A11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
@@ -5858,21 +5858,21 @@
         <v>705</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="A12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
@@ -5889,21 +5889,21 @@
         <v>246</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
@@ -5920,21 +5920,21 @@
         <v>3219</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
@@ -5951,21 +5951,21 @@
         <v>493</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="C15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="11"/>
@@ -5982,21 +5982,21 @@
         <v>1796</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
@@ -6013,21 +6013,21 @@
         <v>774</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1">
       <c r="A17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
@@ -6044,21 +6044,21 @@
         <v>1293</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1">
       <c r="A18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
@@ -6075,21 +6075,21 @@
         <v>940</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1">
       <c r="A19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="C19" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
@@ -6106,21 +6106,21 @@
         <v>1092</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1">
       <c r="A20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
@@ -6137,21 +6137,21 @@
         <v>1224</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1">
       <c r="A21" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
@@ -6168,21 +6168,21 @@
         <v>658</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1">
       <c r="A22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
@@ -6199,21 +6199,21 @@
         <v>1102</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>20</v>
+        <v>539</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
@@ -6230,21 +6230,21 @@
         <v>1698</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1">
       <c r="A24" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
@@ -6261,21 +6261,21 @@
         <v>687</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1">
       <c r="A25" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="C25" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="5"/>
@@ -6292,21 +6292,21 @@
         <v>748</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1">
       <c r="A26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="C26" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>186</v>
+        <v>540</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
@@ -6323,21 +6323,21 @@
         <v>1178</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1">
       <c r="A27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>189</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
@@ -6354,21 +6354,21 @@
         <v>606</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1">
       <c r="A28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
@@ -6385,21 +6385,21 @@
         <v>3198</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>194</v>
+        <v>538</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
@@ -6416,21 +6416,21 @@
         <v>2444</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
@@ -6447,21 +6447,21 @@
         <v>670</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>157</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="10"/>
@@ -6478,21 +6478,21 @@
         <v>658</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
@@ -6509,21 +6509,21 @@
         <v>822</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="10"/>
@@ -6540,21 +6540,21 @@
         <v>1118</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="10"/>
@@ -6571,21 +6571,21 @@
         <v>751</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="10"/>
@@ -6602,21 +6602,21 @@
         <v>2530</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="10"/>
@@ -6633,21 +6633,21 @@
         <v>1052</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="10"/>
@@ -6664,21 +6664,21 @@
         <v>941</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="10"/>
@@ -6695,21 +6695,21 @@
         <v>3080</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="10"/>
@@ -6726,21 +6726,21 @@
         <v>3062</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="10"/>
@@ -6757,21 +6757,21 @@
         <v>1102</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="10"/>
@@ -6788,21 +6788,21 @@
         <v>667</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="10"/>
@@ -6819,21 +6819,21 @@
         <v>870</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="10"/>
@@ -6850,21 +6850,21 @@
         <v>884</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="10"/>
@@ -6881,21 +6881,21 @@
         <v>2555</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="10"/>
@@ -6912,21 +6912,21 @@
         <v>1085</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="10"/>
@@ -6943,21 +6943,21 @@
         <v>391</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="10"/>
@@ -6974,21 +6974,21 @@
         <v>1805</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="10"/>
@@ -7005,21 +7005,21 @@
         <v>348</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="10"/>
@@ -7036,21 +7036,21 @@
         <v>701</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="10"/>
@@ -7067,21 +7067,21 @@
         <v>1120</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="10"/>
@@ -7098,21 +7098,21 @@
         <v>1039</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="10"/>
@@ -7129,21 +7129,21 @@
         <v>942</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="10"/>
@@ -7160,21 +7160,21 @@
         <v>978</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="10"/>
@@ -7191,21 +7191,21 @@
         <v>1879</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="10"/>
@@ -7222,21 +7222,21 @@
         <v>747</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="10"/>
@@ -7253,21 +7253,21 @@
         <v>999</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="10"/>
@@ -7284,21 +7284,21 @@
         <v>746</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="10"/>
@@ -7315,21 +7315,21 @@
         <v>3211</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="10"/>
@@ -7346,21 +7346,21 @@
         <v>608</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="10"/>
@@ -7377,21 +7377,21 @@
         <v>2901</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="10"/>
@@ -7408,21 +7408,21 @@
         <v>1441</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="10"/>
@@ -7439,21 +7439,21 @@
         <v>1903</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="10"/>
@@ -7470,21 +7470,21 @@
         <v>3084</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15" customHeight="1">
       <c r="A64" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="10"/>
@@ -7501,21 +7501,21 @@
         <v>1739</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="10"/>
@@ -7532,21 +7532,21 @@
         <v>607</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1">
       <c r="A66" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="10"/>
@@ -7563,21 +7563,21 @@
         <v>2559</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="10"/>
@@ -7594,21 +7594,21 @@
         <v>684</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15" customHeight="1">
       <c r="A68" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="10"/>
@@ -7625,21 +7625,21 @@
         <v>746</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1">
       <c r="A69" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="10"/>
@@ -7656,21 +7656,21 @@
         <v>3419</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="10"/>
@@ -7687,21 +7687,21 @@
         <v>1365</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1">
       <c r="A71" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="10"/>
@@ -7718,21 +7718,21 @@
         <v>801</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="10"/>
@@ -7749,21 +7749,21 @@
         <v>896</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>194</v>
+        <v>538</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="10"/>
@@ -7780,21 +7780,21 @@
         <v>2356</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="15" customHeight="1">
       <c r="A74" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="10"/>
@@ -7811,21 +7811,21 @@
         <v>1234</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="15" customHeight="1">
       <c r="A75" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="10"/>
@@ -7842,21 +7842,21 @@
         <v>1052</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1">
       <c r="A76" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="10"/>
@@ -7873,21 +7873,21 @@
         <v>1267</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="15" customHeight="1">
       <c r="A77" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="10"/>
@@ -7904,21 +7904,21 @@
         <v>1907</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="15" customHeight="1">
       <c r="A78" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="10"/>
@@ -7935,21 +7935,21 @@
         <v>786</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="15" customHeight="1">
       <c r="A79" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="10"/>
@@ -7966,21 +7966,21 @@
         <v>667</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="15" customHeight="1">
       <c r="A80" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="10"/>
@@ -7997,21 +7997,21 @@
         <v>1019</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1">
       <c r="A81" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="10"/>
@@ -8028,21 +8028,21 @@
         <v>658</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1">
       <c r="A82" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="10"/>
@@ -8059,21 +8059,21 @@
         <v>2784</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1">
       <c r="A83" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="10"/>
@@ -8090,21 +8090,21 @@
         <v>2783</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1">
       <c r="A84" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="10"/>
@@ -8121,21 +8121,21 @@
         <v>1092</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1">
       <c r="A85" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="10"/>
@@ -8152,21 +8152,21 @@
         <v>1264</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1">
       <c r="A86" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="10"/>
@@ -8183,21 +8183,21 @@
         <v>1634</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="10"/>
@@ -8214,21 +8214,21 @@
         <v>681</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1">
       <c r="A88" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="10"/>
@@ -8245,21 +8245,21 @@
         <v>1021</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1">
       <c r="A89" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="10"/>
@@ -8276,21 +8276,21 @@
         <v>790</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15" customHeight="1">
       <c r="A90" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="10"/>
@@ -8307,21 +8307,21 @@
         <v>775</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="15" customHeight="1">
       <c r="A91" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="10"/>
@@ -8338,21 +8338,21 @@
         <v>993</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="15" customHeight="1">
       <c r="A92" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="10"/>
@@ -8369,21 +8369,21 @@
         <v>1123</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="15" customHeight="1">
       <c r="A93" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="10"/>
@@ -8400,21 +8400,21 @@
         <v>549</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1">
       <c r="A94" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="10"/>
@@ -8431,21 +8431,21 @@
         <v>639</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="15" customHeight="1">
       <c r="A95" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="10"/>
@@ -8462,21 +8462,21 @@
         <v>1089</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1">
       <c r="A96" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="10"/>
@@ -8493,21 +8493,21 @@
         <v>943</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="15" customHeight="1">
       <c r="A97" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="10"/>
@@ -8524,21 +8524,21 @@
         <v>1178</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15" customHeight="1">
       <c r="A98" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="10"/>
@@ -8555,21 +8555,21 @@
         <v>1196</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="15" customHeight="1">
       <c r="A99" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="10"/>
@@ -8586,21 +8586,21 @@
         <v>764</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="15" customHeight="1">
       <c r="A100" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="10"/>
@@ -8617,21 +8617,21 @@
         <v>669</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="15" customHeight="1">
       <c r="A101" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="10"/>
@@ -8648,21 +8648,21 @@
         <v>1118</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="15" customHeight="1">
       <c r="A102" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="10"/>
@@ -8679,21 +8679,21 @@
         <v>589</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="15" customHeight="1">
       <c r="A103" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="10"/>
@@ -8710,21 +8710,21 @@
         <v>813</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="15" customHeight="1">
       <c r="A104" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="10"/>
@@ -8741,21 +8741,21 @@
         <v>667</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1">
       <c r="A105" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="10"/>
@@ -8772,21 +8772,21 @@
         <v>837</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="15" customHeight="1">
       <c r="A106" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="10"/>
@@ -8803,21 +8803,21 @@
         <v>794</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="15" customHeight="1">
       <c r="A107" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="10"/>
@@ -8834,21 +8834,21 @@
         <v>1088</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="15" customHeight="1">
       <c r="A108" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="10"/>
@@ -8865,21 +8865,21 @@
         <v>1825</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="15" customHeight="1">
       <c r="A109" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="10"/>
@@ -8896,21 +8896,21 @@
         <v>872</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="15" customHeight="1">
       <c r="A110" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="10"/>
@@ -8927,21 +8927,21 @@
         <v>548</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="15" customHeight="1">
       <c r="A111" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="10"/>
@@ -8958,21 +8958,21 @@
         <v>783</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="15" customHeight="1">
       <c r="A112" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="10"/>
@@ -8989,21 +8989,21 @@
         <v>1929</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="15" customHeight="1">
       <c r="A113" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="10"/>
@@ -9020,21 +9020,21 @@
         <v>737</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="15" customHeight="1">
       <c r="A114" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="10"/>
@@ -9051,21 +9051,21 @@
         <v>2511</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="15" customHeight="1">
       <c r="A115" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="10"/>
@@ -9082,21 +9082,21 @@
         <v>599</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="15" customHeight="1">
       <c r="A116" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="10"/>
@@ -9113,21 +9113,21 @@
         <v>1152</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="15" customHeight="1">
       <c r="A117" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="10"/>
@@ -9144,21 +9144,21 @@
         <v>1521</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="15" customHeight="1">
       <c r="A118" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="10"/>
@@ -9173,21 +9173,21 @@
         <v>1000</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="15" customHeight="1">
       <c r="A119" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="10"/>
@@ -9202,21 +9202,21 @@
         <v>500</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="15" customHeight="1">
       <c r="A120" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="10"/>
@@ -9231,21 +9231,21 @@
         <v>500</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="15" customHeight="1">
       <c r="A121" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="10"/>
@@ -9260,21 +9260,21 @@
         <v>500</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="15" customHeight="1">
       <c r="A122" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="10"/>
@@ -9289,21 +9289,21 @@
         <v>500</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="15" customHeight="1">
       <c r="A123" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="10"/>
@@ -9318,21 +9318,21 @@
         <v>500</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="15" customHeight="1">
       <c r="A124" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="10"/>
@@ -9347,21 +9347,21 @@
         <v>1000</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="15" customHeight="1">
       <c r="A125" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="10"/>
@@ -9378,21 +9378,21 @@
         <v>583</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="15" customHeight="1">
       <c r="A126" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="10"/>
@@ -9407,21 +9407,21 @@
         <v>500</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="15" customHeight="1">
       <c r="A127" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="10"/>
@@ -9436,21 +9436,21 @@
         <v>500</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="15" customHeight="1">
       <c r="A128" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="10"/>
@@ -9465,21 +9465,21 @@
         <v>500</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="15" customHeight="1">
       <c r="A129" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="10"/>
@@ -9494,21 +9494,21 @@
         <v>500</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="15" customHeight="1">
       <c r="A130" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="10"/>
@@ -9523,21 +9523,21 @@
         <v>500</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="15" customHeight="1">
       <c r="A131" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="10"/>
@@ -9552,21 +9552,21 @@
         <v>500</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:13" s="25" customFormat="1" ht="15" customHeight="1">
       <c r="A132" s="19" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E132" s="21"/>
       <c r="F132" s="22"/>
@@ -9581,21 +9581,21 @@
         <v>500</v>
       </c>
       <c r="M132" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="15" customHeight="1">
       <c r="A133" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="10"/>
@@ -9610,21 +9610,21 @@
         <v>500</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="15" customHeight="1">
       <c r="A134" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="10"/>
@@ -9639,21 +9639,21 @@
         <v>300</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="15" customHeight="1">
       <c r="A135" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="10"/>
@@ -9670,21 +9670,21 @@
         <v>361</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="15" customHeight="1">
       <c r="A136" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="10"/>
@@ -9699,21 +9699,21 @@
         <v>1000</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="15" customHeight="1">
       <c r="A137" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="10"/>
@@ -9728,21 +9728,21 @@
         <v>1000</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="15" customHeight="1">
       <c r="A138" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="10"/>
@@ -9759,21 +9759,21 @@
         <v>528</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="15" customHeight="1">
       <c r="A139" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="10"/>
@@ -9788,21 +9788,21 @@
         <v>500</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="15" customHeight="1">
       <c r="A140" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="10"/>
@@ -9817,21 +9817,21 @@
         <v>500</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="15" customHeight="1">
       <c r="A141" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="10"/>
@@ -9846,21 +9846,21 @@
         <v>500</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="15" customHeight="1">
       <c r="A142" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="10"/>
@@ -9875,21 +9875,21 @@
         <v>500</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="15" customHeight="1">
       <c r="A143" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="10"/>
@@ -9904,21 +9904,21 @@
         <v>500</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="15" customHeight="1">
       <c r="A144" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="10"/>
@@ -9933,21 +9933,21 @@
         <v>500</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="15" customHeight="1">
       <c r="A145" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="10"/>
@@ -9962,21 +9962,21 @@
         <v>500</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="15" customHeight="1">
       <c r="A146" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="10"/>
@@ -9991,21 +9991,21 @@
         <v>500</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="15" customHeight="1">
       <c r="A147" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="10"/>
@@ -10022,21 +10022,21 @@
         <v>2353</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="15" customHeight="1">
       <c r="A148" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="10"/>
@@ -10053,21 +10053,21 @@
         <v>2302</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="15" customHeight="1">
       <c r="A149" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E149" s="9"/>
       <c r="F149" s="10"/>
@@ -10082,21 +10082,21 @@
         <v>1500</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="15" customHeight="1">
       <c r="A150" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="10"/>
@@ -10111,21 +10111,21 @@
         <v>1500</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="15" customHeight="1">
       <c r="A151" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E151" s="9"/>
       <c r="F151" s="10"/>
@@ -10140,21 +10140,21 @@
         <v>600</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="15" customHeight="1">
       <c r="A152" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E152" s="9"/>
       <c r="F152" s="10"/>
@@ -10171,21 +10171,21 @@
         <v>653</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="15" customHeight="1">
       <c r="A153" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="10"/>
@@ -10200,21 +10200,21 @@
         <v>600</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="15" customHeight="1">
       <c r="A154" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="10"/>
@@ -10231,21 +10231,21 @@
         <v>711</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="15" customHeight="1">
       <c r="A155" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E155" s="9"/>
       <c r="F155" s="10"/>
@@ -10260,21 +10260,21 @@
         <v>600</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="15" customHeight="1">
       <c r="A156" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E156" s="9"/>
       <c r="F156" s="10"/>
@@ -10291,21 +10291,21 @@
         <v>688</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="15" customHeight="1">
       <c r="A157" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="10"/>
@@ -10320,21 +10320,21 @@
         <v>450</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="15" customHeight="1">
       <c r="A158" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="10"/>
@@ -10351,21 +10351,21 @@
         <v>958</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="15" customHeight="1">
       <c r="A159" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="10"/>
@@ -10380,21 +10380,21 @@
         <v>800</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="15" customHeight="1">
       <c r="A160" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="10"/>
@@ -10409,21 +10409,21 @@
         <v>1000</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="15" customHeight="1">
       <c r="A161" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E161" s="9"/>
       <c r="F161" s="10"/>
@@ -10438,21 +10438,21 @@
         <v>1000</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="15" customHeight="1">
       <c r="A162" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E162" s="9"/>
       <c r="F162" s="10"/>
@@ -10469,21 +10469,21 @@
         <v>627</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="15" customHeight="1">
       <c r="A163" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E163" s="9"/>
       <c r="F163" s="10"/>
@@ -10498,21 +10498,21 @@
         <v>500</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="15" customHeight="1">
       <c r="A164" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E164" s="9"/>
       <c r="F164" s="10"/>
@@ -10527,21 +10527,21 @@
         <v>500</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="15" customHeight="1">
       <c r="A165" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E165" s="9"/>
       <c r="F165" s="10"/>
@@ -10556,21 +10556,21 @@
         <v>500</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="15" customHeight="1">
       <c r="A166" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B166" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D166" s="12" t="s">
         <v>428</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D166" s="12" t="s">
-        <v>431</v>
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="10"/>
@@ -10585,21 +10585,21 @@
         <v>500</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="15" customHeight="1">
       <c r="A167" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E167" s="9"/>
       <c r="F167" s="10"/>
@@ -10614,21 +10614,21 @@
         <v>500</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="15" customHeight="1">
       <c r="A168" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E168" s="9"/>
       <c r="F168" s="10"/>
@@ -10643,21 +10643,21 @@
         <v>500</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:13" ht="15" customHeight="1">
       <c r="A169" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="10"/>
@@ -10672,21 +10672,21 @@
         <v>500</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="15" customHeight="1">
       <c r="A170" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="10"/>
@@ -10701,21 +10701,21 @@
         <v>1000</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="15" customHeight="1">
       <c r="A171" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E171" s="9"/>
       <c r="F171" s="10"/>
@@ -10732,21 +10732,21 @@
         <v>553</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:13" ht="15" customHeight="1">
       <c r="A172" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E172" s="9"/>
       <c r="F172" s="10"/>
@@ -10763,21 +10763,21 @@
         <v>573</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="1:13" ht="15" customHeight="1">
       <c r="A173" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E173" s="9"/>
       <c r="F173" s="10"/>
@@ -10792,21 +10792,21 @@
         <v>500</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="15" customHeight="1">
       <c r="A174" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E174" s="9"/>
       <c r="F174" s="10"/>
@@ -10821,21 +10821,21 @@
         <v>500</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="15" customHeight="1">
       <c r="A175" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E175" s="9"/>
       <c r="F175" s="10"/>
@@ -10850,21 +10850,21 @@
         <v>500</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="15" customHeight="1">
       <c r="A176" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E176" s="9"/>
       <c r="F176" s="10"/>
@@ -10879,21 +10879,21 @@
         <v>500</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="15" customHeight="1">
       <c r="A177" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E177" s="9"/>
       <c r="F177" s="10"/>
@@ -10908,21 +10908,21 @@
         <v>500</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="15" customHeight="1">
       <c r="A178" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E178" s="9"/>
       <c r="F178" s="10"/>
@@ -10939,21 +10939,21 @@
         <v>532</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="15" customHeight="1">
       <c r="A179" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="10"/>
@@ -10968,21 +10968,21 @@
         <v>6000</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="15" customHeight="1">
       <c r="A180" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E180" s="9"/>
       <c r="F180" s="10"/>
@@ -10997,21 +10997,21 @@
         <v>350</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="15" customHeight="1">
       <c r="A181" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E181" s="9"/>
       <c r="F181" s="10"/>
@@ -11028,21 +11028,21 @@
         <v>2622</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:13" ht="15" customHeight="1">
       <c r="A182" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E182" s="9"/>
       <c r="F182" s="10"/>
@@ -11059,21 +11059,21 @@
         <v>3822</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:13" ht="15" customHeight="1">
       <c r="A183" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="10"/>
@@ -11090,21 +11090,21 @@
         <v>2022</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184" spans="1:13" ht="15" customHeight="1">
       <c r="A184" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="10"/>
@@ -11119,21 +11119,21 @@
         <v>1000</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:13" ht="15" customHeight="1">
       <c r="A185" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E185" s="9"/>
       <c r="F185" s="10"/>
@@ -11148,21 +11148,21 @@
         <v>2162</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="15" customHeight="1">
       <c r="A186" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="10"/>
@@ -11177,21 +11177,21 @@
         <v>2219</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="15" customHeight="1">
       <c r="A187" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E187" s="9"/>
       <c r="F187" s="18"/>
@@ -11206,21 +11206,21 @@
         <v>2000</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="188" spans="1:13" ht="15" customHeight="1">
       <c r="A188" s="12" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E188" s="9"/>
       <c r="F188" s="18"/>
@@ -11235,21 +11235,21 @@
         <v>1000</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:13" ht="15" customHeight="1">
       <c r="A189" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="10">
@@ -11264,21 +11264,21 @@
         <v>45000</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="15" customHeight="1">
       <c r="A190" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E190" s="9"/>
       <c r="F190" s="10">
@@ -11293,21 +11293,21 @@
         <v>15000</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="15" customHeight="1">
       <c r="A191" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E191" s="9"/>
       <c r="F191" s="10">
@@ -11322,21 +11322,21 @@
         <v>15000</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="15" customHeight="1">
       <c r="A192" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="10">
@@ -11351,21 +11351,21 @@
         <v>14000</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="15" customHeight="1">
       <c r="A193" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E193" s="9"/>
       <c r="F193" s="10">
@@ -11380,21 +11380,21 @@
         <v>17100</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:13" ht="15" customHeight="1">
       <c r="A194" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="10">
@@ -11409,21 +11409,21 @@
         <v>46245</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="15" customHeight="1">
       <c r="A195" s="12" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E195" s="9"/>
       <c r="F195" s="18"/>
@@ -11438,21 +11438,21 @@
         <v>850</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="15" customHeight="1">
       <c r="A196" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E196" s="9"/>
       <c r="F196" s="18"/>
@@ -11467,21 +11467,21 @@
         <v>3000</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="15" customHeight="1">
       <c r="A197" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D197" s="12" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E197" s="9"/>
       <c r="F197" s="18"/>
@@ -11496,21 +11496,21 @@
         <v>20000</v>
       </c>
       <c r="M197" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="15" customHeight="1">
       <c r="A198" s="12" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E198" s="9"/>
       <c r="F198" s="18"/>
@@ -11525,21 +11525,21 @@
         <v>2000</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="199" spans="1:13" ht="15" customHeight="1">
       <c r="A199" s="26" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E199" s="9"/>
       <c r="F199" s="18"/>
@@ -11554,21 +11554,21 @@
         <v>2500</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200" spans="1:13" ht="15" customHeight="1">
       <c r="A200" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E200" s="9"/>
       <c r="F200" s="18"/>
@@ -11583,21 +11583,21 @@
         <v>2000</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201" spans="1:13" ht="15" customHeight="1">
       <c r="A201" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E201" s="9"/>
       <c r="F201" s="18"/>
@@ -11612,21 +11612,21 @@
         <v>4000</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202" spans="1:13" ht="15" customHeight="1">
       <c r="A202" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E202" s="9"/>
       <c r="F202" s="18"/>
@@ -11641,21 +11641,21 @@
         <v>4000</v>
       </c>
       <c r="M202" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="1:13" ht="15" customHeight="1">
       <c r="A203" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E203" s="9"/>
       <c r="F203" s="11"/>
@@ -11670,21 +11670,21 @@
         <v>2500</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="204" spans="1:13" ht="15" customHeight="1">
       <c r="A204" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" s="11"/>
@@ -11699,21 +11699,21 @@
         <v>7500</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="205" spans="1:13" ht="15" customHeight="1">
       <c r="A205" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E205" s="9"/>
       <c r="F205" s="11"/>
@@ -11728,21 +11728,21 @@
         <v>1000</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206" spans="1:13" ht="15" customHeight="1">
       <c r="A206" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E206" s="9"/>
       <c r="F206" s="11"/>
@@ -11757,21 +11757,21 @@
         <v>1000</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="207" spans="1:13" ht="15" customHeight="1">
       <c r="A207" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D207" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E207" s="9"/>
       <c r="F207" s="11"/>
@@ -11786,21 +11786,21 @@
         <v>4000</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208" spans="1:13" ht="15" customHeight="1">
       <c r="A208" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E208" s="9"/>
       <c r="F208" s="11"/>
@@ -11815,21 +11815,21 @@
         <v>4000</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="15" customHeight="1">
       <c r="A209" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B209" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D209" s="12" t="s">
         <v>489</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D209" s="12" t="s">
-        <v>492</v>
       </c>
       <c r="E209" s="9"/>
       <c r="F209" s="11"/>
@@ -11844,21 +11844,21 @@
         <v>1000</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="15" customHeight="1">
       <c r="A210" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E210" s="9"/>
       <c r="F210" s="11"/>
@@ -11873,21 +11873,21 @@
         <v>1500</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="15" customHeight="1">
       <c r="A211" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D211" s="16" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="11"/>
@@ -11902,21 +11902,21 @@
         <v>2500</v>
       </c>
       <c r="M211" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212" spans="1:13" ht="15" customHeight="1">
       <c r="A212" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D212" s="16" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E212" s="9"/>
       <c r="F212" s="11"/>
@@ -11931,21 +11931,21 @@
         <v>2500</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="15" customHeight="1">
       <c r="A213" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E213" s="9"/>
       <c r="F213" s="11"/>
@@ -11960,21 +11960,21 @@
         <v>1500</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="15" customHeight="1">
       <c r="A214" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E214" s="9"/>
       <c r="F214" s="11"/>
@@ -11989,21 +11989,21 @@
         <v>3000</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="15" customHeight="1">
       <c r="A215" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E215" s="9"/>
       <c r="F215" s="11"/>
@@ -12018,21 +12018,21 @@
         <v>2000</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="15" customHeight="1">
       <c r="A216" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E216" s="9"/>
       <c r="F216" s="11"/>
@@ -12047,21 +12047,21 @@
         <v>3000</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="15" customHeight="1">
       <c r="A217" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E217" s="9"/>
       <c r="F217" s="11"/>
@@ -12076,21 +12076,21 @@
         <v>2000</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="15" customHeight="1">
       <c r="A218" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E218" s="9"/>
       <c r="F218" s="11"/>
@@ -12105,21 +12105,21 @@
         <v>2000</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="15" customHeight="1">
       <c r="A219" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E219" s="9"/>
       <c r="F219" s="11"/>
@@ -12134,21 +12134,21 @@
         <v>2000</v>
       </c>
       <c r="M219" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="220" spans="1:13" ht="15" customHeight="1">
       <c r="A220" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E220" s="9"/>
       <c r="F220" s="11"/>
@@ -12163,21 +12163,21 @@
         <v>20000</v>
       </c>
       <c r="M220" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="15" customHeight="1">
       <c r="A221" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E221" s="9"/>
       <c r="F221" s="11"/>
@@ -12192,21 +12192,21 @@
         <v>500</v>
       </c>
       <c r="M221" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="222" spans="1:13" ht="15" customHeight="1">
       <c r="A222" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E222" s="9"/>
       <c r="F222" s="11"/>
@@ -12221,21 +12221,21 @@
         <v>1000</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223" spans="1:13" ht="15" customHeight="1">
       <c r="A223" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E223" s="9"/>
       <c r="F223" s="11"/>
@@ -12252,21 +12252,21 @@
         <v>3808</v>
       </c>
       <c r="M223" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="224" spans="1:13" ht="15" customHeight="1">
       <c r="A224" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E224" s="9"/>
       <c r="F224" s="11"/>
@@ -12283,21 +12283,21 @@
         <v>2977</v>
       </c>
       <c r="M224" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="225" spans="1:13" ht="15" customHeight="1">
       <c r="A225" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E225" s="9"/>
       <c r="F225" s="11"/>
@@ -12312,21 +12312,21 @@
         <v>1000</v>
       </c>
       <c r="M225" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="226" spans="1:13" ht="15" customHeight="1">
       <c r="A226" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E226" s="9"/>
       <c r="F226" s="11"/>
@@ -12341,21 +12341,21 @@
         <v>500</v>
       </c>
       <c r="M226" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="227" spans="1:13" ht="15" customHeight="1">
       <c r="A227" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E227" s="9"/>
       <c r="F227" s="11"/>
@@ -12370,21 +12370,21 @@
         <v>500</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="228" spans="1:13" ht="15" customHeight="1">
       <c r="A228" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E228" s="9"/>
       <c r="F228" s="11"/>
@@ -12399,21 +12399,21 @@
         <v>500</v>
       </c>
       <c r="M228" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="229" spans="1:13" ht="15" customHeight="1">
       <c r="A229" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E229" s="9"/>
       <c r="F229" s="11"/>
@@ -12428,21 +12428,21 @@
         <v>2500</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="230" spans="1:13" ht="15" customHeight="1">
       <c r="A230" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E230" s="9"/>
       <c r="F230" s="11"/>
@@ -12457,21 +12457,21 @@
         <v>2800</v>
       </c>
       <c r="M230" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="231" spans="1:13" ht="15" customHeight="1">
       <c r="A231" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E231" s="9"/>
       <c r="F231" s="11"/>
@@ -12486,21 +12486,21 @@
         <v>1400</v>
       </c>
       <c r="M231" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="232" spans="1:13" ht="15" customHeight="1">
       <c r="A232" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E232" s="9"/>
       <c r="F232" s="11"/>
@@ -12515,21 +12515,21 @@
         <v>5250</v>
       </c>
       <c r="M232" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="233" spans="1:13" ht="15" customHeight="1">
       <c r="A233" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E233" s="9"/>
       <c r="F233" s="11"/>
@@ -12544,21 +12544,21 @@
         <v>1750</v>
       </c>
       <c r="M233" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="234" spans="1:13" ht="15" customHeight="1">
       <c r="A234" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E234" s="9"/>
       <c r="F234" s="11"/>
@@ -12573,21 +12573,21 @@
         <v>1000</v>
       </c>
       <c r="M234" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="235" spans="1:13" ht="15" customHeight="1">
       <c r="A235" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E235" s="9"/>
       <c r="F235" s="11"/>
@@ -12602,21 +12602,21 @@
         <v>1500</v>
       </c>
       <c r="M235" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="236" spans="1:13" ht="15" customHeight="1">
       <c r="A236" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E236" s="9"/>
       <c r="F236" s="11"/>
@@ -12631,21 +12631,21 @@
         <v>1500</v>
       </c>
       <c r="M236" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="237" spans="1:13" ht="15" customHeight="1">
       <c r="A237" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E237" s="9"/>
       <c r="F237" s="11"/>
@@ -12660,21 +12660,21 @@
         <v>3250</v>
       </c>
       <c r="M237" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="238" spans="1:13" ht="15" customHeight="1">
       <c r="A238" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E238" s="9"/>
       <c r="F238" s="11"/>
@@ -12689,21 +12689,21 @@
         <v>1000</v>
       </c>
       <c r="M238" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="15" customHeight="1">
       <c r="A239" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E239" s="9"/>
       <c r="F239" s="11"/>
@@ -12718,21 +12718,21 @@
         <v>1500</v>
       </c>
       <c r="M239" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="240" spans="1:13" ht="15" customHeight="1">
       <c r="A240" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E240" s="9"/>
       <c r="F240" s="11"/>
@@ -12747,21 +12747,21 @@
         <v>1500</v>
       </c>
       <c r="M240" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="241" spans="1:13" ht="15" customHeight="1">
       <c r="A241" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E241" s="9"/>
       <c r="F241" s="11"/>
@@ -12776,21 +12776,21 @@
         <v>5000</v>
       </c>
       <c r="M241" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="242" spans="1:13" ht="15" customHeight="1">
       <c r="A242" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E242" s="9"/>
       <c r="F242" s="11"/>
@@ -12807,21 +12807,21 @@
         <v>2022</v>
       </c>
       <c r="M242" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="243" spans="1:13" ht="15" customHeight="1">
       <c r="A243" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D243" s="16" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E243" s="9"/>
       <c r="F243" s="11"/>
@@ -12838,21 +12838,21 @@
         <v>2022</v>
       </c>
       <c r="M243" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="244" spans="1:13" ht="15" customHeight="1">
       <c r="A244" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E244" s="9"/>
       <c r="F244" s="11"/>
@@ -12867,21 +12867,21 @@
         <v>1200</v>
       </c>
       <c r="M244" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="245" spans="1:13" ht="15" customHeight="1">
       <c r="A245" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E245" s="9"/>
       <c r="F245" s="11"/>
@@ -12896,21 +12896,21 @@
         <v>2500</v>
       </c>
       <c r="M245" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="246" spans="1:13" ht="15" customHeight="1">
       <c r="A246" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E246" s="9"/>
       <c r="F246" s="11"/>
@@ -12925,21 +12925,21 @@
         <v>1500</v>
       </c>
       <c r="M246" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="247" spans="1:13" ht="15" customHeight="1">
       <c r="A247" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E247" s="9"/>
       <c r="F247" s="11"/>
@@ -12954,21 +12954,21 @@
         <v>1000</v>
       </c>
       <c r="M247" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="248" spans="1:13" ht="15" customHeight="1">
       <c r="A248" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E248" s="9"/>
       <c r="F248" s="11"/>
@@ -12983,21 +12983,21 @@
         <v>1500</v>
       </c>
       <c r="M248" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="249" spans="1:13" ht="15" customHeight="1">
       <c r="A249" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E249" s="9"/>
       <c r="F249" s="11"/>
@@ -13012,21 +13012,21 @@
         <v>1000</v>
       </c>
       <c r="M249" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="250" spans="1:13" ht="15" customHeight="1">
       <c r="A250" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E250" s="9"/>
       <c r="F250" s="11"/>
@@ -13041,21 +13041,21 @@
         <v>3000</v>
       </c>
       <c r="M250" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="251" spans="1:13" ht="15" customHeight="1">
       <c r="A251" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E251" s="9"/>
       <c r="F251" s="11"/>
@@ -13070,21 +13070,21 @@
         <v>1200</v>
       </c>
       <c r="M251" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="252" spans="1:13" ht="15" customHeight="1">
       <c r="A252" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E252" s="9"/>
       <c r="F252" s="11"/>
@@ -13099,21 +13099,21 @@
         <v>1000</v>
       </c>
       <c r="M252" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="253" spans="1:13" ht="15" customHeight="1">
       <c r="A253" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E253" s="9"/>
       <c r="F253" s="11"/>
@@ -13128,21 +13128,21 @@
         <v>1400</v>
       </c>
       <c r="M253" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="254" spans="1:13" ht="15" customHeight="1">
       <c r="A254" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E254" s="9"/>
       <c r="F254" s="11"/>
@@ -13157,21 +13157,21 @@
         <v>2500</v>
       </c>
       <c r="M254" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="255" spans="1:13" ht="15" customHeight="1">
       <c r="A255" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E255" s="9"/>
       <c r="F255" s="11"/>
@@ -13186,21 +13186,21 @@
         <v>2500</v>
       </c>
       <c r="M255" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="256" spans="1:13" ht="15" customHeight="1">
       <c r="A256" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E256" s="9"/>
       <c r="F256" s="11"/>
@@ -13215,21 +13215,21 @@
         <v>1500</v>
       </c>
       <c r="M256" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="257" spans="1:13" ht="15" customHeight="1">
       <c r="A257" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E257" s="9"/>
       <c r="F257" s="11"/>
@@ -13244,21 +13244,21 @@
         <v>1500</v>
       </c>
       <c r="M257" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="258" spans="1:13" ht="15" customHeight="1">
       <c r="A258" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E258" s="9"/>
       <c r="F258" s="11"/>
@@ -13273,21 +13273,21 @@
         <v>4512</v>
       </c>
       <c r="M258" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="259" spans="1:13" ht="15" customHeight="1">
       <c r="A259" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E259" s="9"/>
       <c r="F259" s="11"/>
@@ -13302,21 +13302,21 @@
         <v>500</v>
       </c>
       <c r="M259" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="260" spans="1:13" ht="15" customHeight="1">
       <c r="A260" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E260" s="9"/>
       <c r="F260" s="11"/>
@@ -13331,21 +13331,21 @@
         <v>2500</v>
       </c>
       <c r="M260" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="261" spans="1:13" ht="15" customHeight="1">
       <c r="A261" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E261" s="9"/>
       <c r="F261" s="11"/>
@@ -13360,21 +13360,21 @@
         <v>8000</v>
       </c>
       <c r="M261" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="262" spans="1:13" ht="15" customHeight="1">
       <c r="A262" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E262" s="9"/>
       <c r="F262" s="11"/>
@@ -13389,21 +13389,21 @@
         <v>3500</v>
       </c>
       <c r="M262" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="263" spans="1:13" ht="15" customHeight="1">
       <c r="A263" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E263" s="9"/>
       <c r="F263" s="11"/>
@@ -13418,21 +13418,21 @@
         <v>5214</v>
       </c>
       <c r="M263" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="264" spans="1:13" ht="15" customHeight="1">
       <c r="A264" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E264" s="9"/>
       <c r="F264" s="11"/>
@@ -13447,21 +13447,21 @@
         <v>6000</v>
       </c>
       <c r="M264" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="15" customHeight="1">
       <c r="A265" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D265" s="16" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E265" s="9"/>
       <c r="F265" s="18"/>
@@ -13476,7 +13476,7 @@
         <v>1800</v>
       </c>
       <c r="M265" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -13534,13 +13534,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>2016</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
@@ -13551,13 +13551,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>2016</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>6</v>
@@ -13568,13 +13568,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1">
         <v>2016</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
@@ -13585,13 +13585,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1">
         <v>2016</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
@@ -13602,13 +13602,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1">
         <v>2016</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -13619,13 +13619,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1">
         <v>2016</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
@@ -13636,13 +13636,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1">
         <v>2016</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
@@ -13653,13 +13653,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1">
         <v>2016</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
